--- a/Урай (2).xlsx
+++ b/Урай (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Яндекс.Лицей в ХМАО\2021-22\100 WebServer API проект\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\илья\питон\главные проекты\Buynet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QT" sheetId="1" r:id="rId1"/>
@@ -1284,78 +1284,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1365,19 +1293,91 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,11 +1659,11 @@
       <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1675,11 +1675,11 @@
       <c r="D5" s="24">
         <v>15</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="24">
         <v>10</v>
       </c>
@@ -1691,11 +1691,11 @@
       <c r="D6" s="24">
         <v>5</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
       <c r="K6" s="24">
         <v>15</v>
       </c>
@@ -1707,11 +1707,11 @@
       <c r="D7" s="24">
         <v>20</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="24">
         <v>10</v>
       </c>
@@ -1724,11 +1724,11 @@
         <v>20</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="27">
         <v>5</v>
       </c>
@@ -1736,64 +1736,64 @@
     <row r="9" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:36" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="96" t="s">
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AB12" s="94" t="s">
+      <c r="AB12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="98"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="107"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:36" ht="79.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
@@ -1815,39 +1815,39 @@
       <c r="K13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="104" t="s">
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="79" t="s">
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="88" t="s">
         <v>4</v>
       </c>
       <c r="AC13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="81" t="s">
+      <c r="AD13" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AE13" s="81" t="s">
+      <c r="AE13" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AF13" s="83" t="s">
+      <c r="AF13" s="92" t="s">
         <v>27</v>
       </c>
       <c r="AG13" s="2"/>
@@ -1856,10 +1856,10 @@
       <c r="AJ13" s="2"/>
     </row>
     <row r="14" spans="1:36" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="76">
         <v>44490</v>
       </c>
@@ -1926,14 +1926,14 @@
       <c r="Z14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
       <c r="AC14" s="78">
         <v>44511</v>
       </c>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="84"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="93"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
@@ -2742,11 +2742,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="MhvwJ7gvllo0AtQXu3keiD+hRBRvL9GG6hVIha+DFKv95LpSuNl9+FUtvVr7SPykh9dX3Wa/wF1bQtKOXrp0Hw==" saltValue="+I66cHqqjMjYQY/PoZRqjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="AE13:AE14"/>
     <mergeCell ref="AF13:AF14"/>
@@ -2761,6 +2756,11 @@
     <mergeCell ref="L12:Z12"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:Z13"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2812,11 +2812,11 @@
       <c r="D4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="26" t="s">
         <v>1</v>
       </c>
@@ -2828,11 +2828,11 @@
       <c r="D5" s="45">
         <v>15</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="24">
         <v>10</v>
       </c>
@@ -2844,11 +2844,11 @@
       <c r="D6" s="45">
         <v>5</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
       <c r="K6" s="24">
         <v>15</v>
       </c>
@@ -2860,11 +2860,11 @@
       <c r="D7" s="45">
         <v>20</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="24">
         <v>10</v>
       </c>
@@ -2877,29 +2877,29 @@
         <v>20</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="117" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="115"/>
@@ -2908,7 +2908,7 @@
       <c r="I12" s="115"/>
       <c r="J12" s="115"/>
       <c r="K12" s="115"/>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="114" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="115"/>
@@ -2921,26 +2921,26 @@
       <c r="T12" s="115"/>
       <c r="U12" s="115"/>
       <c r="V12" s="115"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="96" t="s">
+      <c r="W12" s="116"/>
+      <c r="X12" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="114" t="s">
+      <c r="Y12" s="117" t="s">
         <v>2</v>
       </c>
       <c r="Z12" s="115"/>
       <c r="AA12" s="115"/>
       <c r="AB12" s="115"/>
-      <c r="AC12" s="116"/>
+      <c r="AC12" s="118"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" ht="70.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
@@ -2962,36 +2962,36 @@
       <c r="K13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="104" t="s">
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="79" t="s">
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="88" t="s">
         <v>4</v>
       </c>
       <c r="Z13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA13" s="81" t="s">
+      <c r="AA13" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="81" t="s">
+      <c r="AB13" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AC13" s="83" t="s">
+      <c r="AC13" s="92" t="s">
         <v>27</v>
       </c>
       <c r="AD13" s="2"/>
@@ -2999,10 +2999,10 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" ht="46.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="76">
         <v>44546</v>
       </c>
@@ -3060,14 +3060,14 @@
       <c r="W14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
       <c r="Z14" s="78">
         <v>44581</v>
       </c>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="84"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="93"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -3810,12 +3810,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="G9CiSvdsuP/hDQIWYsk4wYYXFPtRwysJ1tuo/xqnPX6u2WnPZ1pVIAroE3LiGb2mt1gHHcti+9wF6dnjRh944g==" saltValue="bfMHQgdloC1Ol47POmp1eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="L12:W12"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="AC13:AC14"/>
     <mergeCell ref="AA13:AA14"/>
@@ -3829,6 +3823,12 @@
     <mergeCell ref="Y13:Y14"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:W13"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="L12:W12"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3843,7 +3843,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3882,11 +3882,11 @@
       <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="38" t="s">
         <v>1</v>
       </c>
@@ -3898,11 +3898,11 @@
       <c r="D5" s="24">
         <v>15</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="39">
         <v>10</v>
       </c>
@@ -3914,11 +3914,11 @@
       <c r="D6" s="24">
         <v>5</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
       <c r="K6" s="39">
         <v>15</v>
       </c>
@@ -3930,11 +3930,11 @@
       <c r="D7" s="24">
         <v>20</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="39">
         <v>10</v>
       </c>
@@ -3947,29 +3947,29 @@
         <v>20</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="117" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="115"/>
@@ -3978,7 +3978,7 @@
       <c r="I12" s="115"/>
       <c r="J12" s="115"/>
       <c r="K12" s="115"/>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="114" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="115"/>
@@ -3991,26 +3991,26 @@
       <c r="T12" s="115"/>
       <c r="U12" s="115"/>
       <c r="V12" s="115"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="96" t="s">
+      <c r="W12" s="116"/>
+      <c r="X12" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="114" t="s">
+      <c r="Y12" s="117" t="s">
         <v>2</v>
       </c>
       <c r="Z12" s="115"/>
       <c r="AA12" s="115"/>
       <c r="AB12" s="115"/>
-      <c r="AC12" s="116"/>
+      <c r="AC12" s="118"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" ht="70.150000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
@@ -4032,36 +4032,36 @@
       <c r="K13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="104" t="s">
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="79" t="s">
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="88" t="s">
         <v>4</v>
       </c>
       <c r="Z13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA13" s="81" t="s">
+      <c r="AA13" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="81" t="s">
+      <c r="AB13" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AC13" s="83" t="s">
+      <c r="AC13" s="92" t="s">
         <v>27</v>
       </c>
       <c r="AD13" s="2"/>
@@ -4069,10 +4069,10 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="76">
         <v>44648</v>
       </c>
@@ -4130,14 +4130,14 @@
       <c r="W14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
       <c r="Z14" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="84"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="93"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -4324,7 +4324,7 @@
       <c r="C17" s="59"/>
       <c r="D17" s="28">
         <f t="shared" ref="D17:D31" si="0">($K$6*SUM(E17:K17)/7+($D$5*L17+$D$6*M17+$D$7*N17+$D$8*SUM(O17:W17)*X17/9)+$K$5*Y17+$K$7*Z17+$K$8*AA17)*(1-AB17)</f>
-        <v>6.4285714285714288</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="E17" s="61">
         <v>1</v>
@@ -4335,7 +4335,9 @@
       <c r="G17" s="61">
         <v>1</v>
       </c>
-      <c r="H17" s="61"/>
+      <c r="H17" s="61">
+        <v>1</v>
+      </c>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
@@ -4866,12 +4868,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="U9AURV/xUsLPkEqvVrQS0S1JLt8jCB4BhA+XTLt8Vzc8GBUlc7ouk4ckxk4z35tETsnlDxUN30SM94PLVrDTQQ==" saltValue="3pN1IUQXfm4fb76tpNPOzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="L12:W12"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="AC13:AC14"/>
     <mergeCell ref="AA13:AA14"/>
@@ -4885,6 +4881,12 @@
     <mergeCell ref="Y13:Y14"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:W13"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="L12:W12"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4939,11 +4941,11 @@
       <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="26" t="s">
         <v>1</v>
       </c>
@@ -4956,11 +4958,11 @@
       <c r="D5" s="24">
         <v>15</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="24">
         <v>10</v>
       </c>
@@ -4973,11 +4975,11 @@
       <c r="D6" s="24">
         <v>5</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
       <c r="K6" s="24">
         <v>15</v>
       </c>
@@ -4990,11 +4992,11 @@
       <c r="D7" s="24">
         <v>20</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="24">
         <v>10</v>
       </c>
@@ -5008,17 +5010,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="119" t="s">
@@ -5027,49 +5029,49 @@
       <c r="C12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="96" t="s">
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="94" t="s">
+      <c r="W12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="98"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="107"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30" s="43" customFormat="1" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="120"/>
       <c r="C13" s="120"/>
-      <c r="D13" s="93"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
@@ -5091,34 +5093,34 @@
       <c r="K13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="101" t="s">
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="79" t="s">
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="88" t="s">
         <v>4</v>
       </c>
       <c r="X13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Y13" s="81" t="s">
+      <c r="Y13" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="81" t="s">
+      <c r="Z13" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="83" t="s">
+      <c r="AA13" s="92" t="s">
         <v>27</v>
       </c>
       <c r="AB13" s="42"/>
@@ -5126,10 +5128,10 @@
       <c r="AD13" s="42"/>
     </row>
     <row r="14" spans="1:30" s="43" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
-      <c r="D14" s="82"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="49" t="s">
         <v>28</v>
       </c>
@@ -5181,14 +5183,14 @@
       <c r="U14" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
       <c r="X14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="84"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="93"/>
       <c r="AB14" s="42"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="42"/>
@@ -5865,18 +5867,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cOwkizKyhJu1oDgws0X+gibz/xcGmlJSOJwQJ7ZlLoy2WJTJwPEBp+Ch+LK+gHVx7oKE7h9nP+NVvWa+a2UqKw==" saltValue="Ey5Xi5FHlS/scKz2rNFVUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="L12:U12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:U13"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -5884,6 +5874,18 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="H8:J8"/>
+    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="Z13:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
